--- a/eurosys_outputs/sec6.3.xlsx
+++ b/eurosys_outputs/sec6.3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="17655"/>
+    <workbookView windowWidth="25605" windowHeight="12060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -711,7 +711,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -721,16 +721,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1060,7 +1054,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1103,10 +1097,10 @@
       <c r="D2" s="2">
         <v>56.7375</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1126,10 +1120,10 @@
       <c r="E3" s="2">
         <v>5.1875</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="8"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" ht="16.5" spans="1:9">
       <c r="A4" s="1" t="s">
@@ -1144,13 +1138,13 @@
       <c r="D4" s="2">
         <v>34.75</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="2">
         <v>0.25</v>
       </c>
-      <c r="I4" s="8"/>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" ht="16.5" spans="1:10">
       <c r="A5" s="1" t="s">
@@ -1171,8 +1165,8 @@
       <c r="F5" s="2">
         <v>0.275</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" ht="31.5" spans="1:10">
       <c r="A6" s="1" t="s">
@@ -1193,11 +1187,11 @@
       <c r="F6" s="2">
         <v>0.2875</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" ht="16.5" spans="1:10">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2">
@@ -1215,29 +1209,29 @@
       <c r="F7" s="2">
         <v>0.1625</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" ht="16.5" spans="1:10">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="J8" s="8"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" ht="16.5" spans="1:10">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="J9" s="8"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" ht="15.75" spans="1:6">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1260,19 +1254,19 @@
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>12.1932</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>0.3766</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>11.8165</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1280,19 +1274,19 @@
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>3.44459</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>0.39078</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>3.02104</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>0.03276</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1300,19 +1294,19 @@
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>2.80718</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>0.13343</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>2.63199</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>0.03617</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>0.00638</v>
       </c>
     </row>
@@ -1320,19 +1314,19 @@
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>1.39491</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>0.13129</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>1.22395</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>0.03194</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>0.00773</v>
       </c>
     </row>
